--- a/NJM.xlsx
+++ b/NJM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Nusrat Mim</t>
+  </si>
+  <si>
+    <t>test 1</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,6 +503,9 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">

--- a/NJM.xlsx
+++ b/NJM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>test 1</t>
+  </si>
+  <si>
+    <t>test 2</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +509,9 @@
       </c>
       <c r="J3" t="s">
         <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
